--- a/medicine/Pharmacie/1888_en_santé_et_médecine/1888_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1888_en_santé_et_médecine/1888_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1888 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 mars : loi sur l’assurance maladie en Autriche[1].
-26 mai : Alexandre Yersin soutient sa thèse de doctorat en médecine intitulée Étude sur le développement du tubercule expérimental, sur la lésion anatomique de la tuberculose expérimentale[2].
-15 juin : mort de l'Empereur allemand Frédéric III des suites et des complications d'un cancer du larynx[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 mars : loi sur l’assurance maladie en Autriche.
+26 mai : Alexandre Yersin soutient sa thèse de doctorat en médecine intitulée Étude sur le développement du tubercule expérimental, sur la lésion anatomique de la tuberculose expérimentale.
+15 juin : mort de l'Empereur allemand Frédéric III des suites et des complications d'un cancer du larynx.
 29 juin : Frederick Treves pratique la première appendicectomie d'Angleterre.
-1er octobre[4] : Auguste Forel ouvre en Suisse le premier établissement de désintoxication pour alcooliques à Ellikon (Thurgovie)[5].
-5 novembre : les médecins français Jules Héricourt et Charles Richet présentent leur découverte de la sérothérapie dans une note lue à l'Académie des sciences ; son application sur l'homme intervient deux ans plus tard[6].
-14 novembre : inauguration de l'Institut Pasteur de Paris[7].
-Alexandre Yersin et Émile Roux découvrent à l'Institut Pasteur de Paris la toxine diphtérique sécrétée par le bacille diphtérique[8].</t>
+1er octobre : Auguste Forel ouvre en Suisse le premier établissement de désintoxication pour alcooliques à Ellikon (Thurgovie).
+5 novembre : les médecins français Jules Héricourt et Charles Richet présentent leur découverte de la sérothérapie dans une note lue à l'Académie des sciences ; son application sur l'homme intervient deux ans plus tard.
+14 novembre : inauguration de l'Institut Pasteur de Paris.
+Alexandre Yersin et Émile Roux découvrent à l'Institut Pasteur de Paris la toxine diphtérique sécrétée par le bacille diphtérique.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Benjamin Ball, La folie érotique, Baillière
 Georges Bécavin, L'École de Salerne et les médecins salernitains, Ballière, 127 p.
 Début de la publication des Œuvres complètes de Jean-Martin Charcot (elle finira en 1894).
-Jean-Martin Charcot et Paul Richer : Le mascaron grotesque de l'église Santa Maria Formosa, à Venise, et l'hémispasme glosso-labié hystérique[9]
-Jean-Martin Charcot, Paul Richer et Gilles de la Tourette Nouvelle iconographie de la Salpêtrière, Paris, Lecrosnier et Babé, 1888-1918[10]
-Arthur Fallot décrit la tétralogie de cardiopathies congénitales qui porte son nom[11] (« maladie bleue »).
+Jean-Martin Charcot et Paul Richer : Le mascaron grotesque de l'église Santa Maria Formosa, à Venise, et l'hémispasme glosso-labié hystérique
+Jean-Martin Charcot, Paul Richer et Gilles de la Tourette Nouvelle iconographie de la Salpêtrière, Paris, Lecrosnier et Babé, 1888-1918
+Arthur Fallot décrit la tétralogie de cardiopathies congénitales qui porte son nom (« maladie bleue »).
 Xavier Galezowski et A. Kopff, Hygiène de la vue, Baillière et fils
 Coste de Lagrave, Hypnotisme états intermédiaires entre le sommeil et la veille, Baillière et fils
 Theodor Meynert, Psychiatrie : clinique des maladies du cerveau antérieur basée sur sa structure, ses fonctions et sa nutrition, Bruxelles, Manceaux — Traduction française.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Copley : Thomas Henry Huxley (1825-1895), chirurgien naval, biologiste, paléontologue et philosophe britannique.
 Médaille linnéenne : Richard Owen (1804-1892), médecin, biologiste, spécialiste en anatomie comparée et paléontologue britannique.</t>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>21 janvier : Tullio Terni (it) (mort en 1946), médecin anatomiste italien.
 22 juin : Selman Waksman (mort en 1973), microbiologiste américain, découvreur de la streptomycine.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1888_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1888_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,10 +675,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>26 mai : Frédéric Alphonse Musculus (né en 1829), pharmacien et chimiste français.
-13 juin : Friedrich Wilhelm Hagen (né en 1814), médecin et psychiatre bavarois[12].
+13 juin : Friedrich Wilhelm Hagen (né en 1814), médecin et psychiatre bavarois.
 16 août : John Stith Pemberton (né en 1831), pharmacien américain.</t>
         </is>
       </c>
